--- a/чистый бланк/ЗАКАЗ КРЫМ 04,07,24гр-выезд 06,07.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 04,07,24гр-выезд 06,07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972B60E-C995-4A07-9DB7-C17CB92AEF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBCB454-4DE1-4E39-9572-092231272F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$113</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="185">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -412,9 +412,6 @@
     <t>СВИНИНА ПО-ДОМАШНЕМУ к/в мл/к в/у 0.3кг</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕКОН с/к с/н в/у 1/180 10шт. </t>
-  </si>
-  <si>
     <t>Паштеты</t>
   </si>
   <si>
@@ -584,6 +581,12 @@
   </si>
   <si>
     <t>ДОМАШНИЙ РЕЦЕПТ СО ШПИКОМ Коровино 0.5кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>БЕКОН с/к с/н в/у 1/180 10шт.</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1771,8 @@
   <dimension ref="A1:M1637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+      <pane ySplit="9" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2222,7 @@
         <v>6341</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>25</v>
@@ -2391,7 +2394,7 @@
         <v>6340</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>25</v>
@@ -3030,7 +3033,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="82"/>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="str">
         <f>RIGHT(D53:D163,4)</f>
         <v>6713</v>
@@ -3055,296 +3058,292 @@
       <c r="J53" s="39"/>
       <c r="K53" s="82"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D166,4)</f>
-        <v>6297</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="35" t="s">
+        <f>RIGHT(D54:D159,4)</f>
+        <v/>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="75"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="94" t="str">
+        <f>RIGHT(D55:D160,4)</f>
+        <v>5698</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1001034065698</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23">
+        <v>1.013333333333333</v>
+      </c>
+      <c r="G55" s="23">
+        <f>E55*1</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I55" s="14">
+        <v>30</v>
+      </c>
+      <c r="J55" s="39"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="94" t="str">
+        <f>RIGHT(D56:D163,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="28">
-        <v>1001022556297</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23">
-        <f>E54*0.27</f>
+      <c r="D56" s="28">
+        <v>1001031076528</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23">
+        <f>E56*0.4</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14">
-        <v>3.24</v>
-      </c>
-      <c r="I54" s="14">
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="39"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="94" t="str">
+        <f>RIGHT(D57:D165,4)</f>
+        <v>6527</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G57" s="23">
+        <f>E57*1</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I57" s="14">
+        <v>30</v>
+      </c>
+      <c r="J57" s="39"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="94" t="str">
+        <f>RIGHT(D58:D166,4)</f>
+        <v/>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="75"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94" t="str">
+        <f>RIGHT(D59:D167,4)</f>
+        <v>6666</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="28">
+        <v>1001302276666</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G59" s="23">
+        <f>E59*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I59" s="14">
         <v>45</v>
       </c>
-      <c r="J54" s="39"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D159,4)</f>
-        <v/>
-      </c>
-      <c r="B55" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="75"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D160,4)</f>
-        <v>5698</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="28">
-        <v>1001034065698</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23">
-        <v>1.013333333333333</v>
-      </c>
-      <c r="G56" s="23">
-        <f>E56*1</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I56" s="14">
-        <v>30</v>
-      </c>
-      <c r="J56" s="39"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D163,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23">
-        <f>E57*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="39"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D165,4)</f>
-        <v>6527</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="28">
-        <v>1001031076527</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23">
-        <v>1.0166666666666671</v>
-      </c>
-      <c r="G58" s="23">
-        <f>E58*1</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I58" s="14">
-        <v>30</v>
-      </c>
-      <c r="J58" s="39"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D166,4)</f>
-        <v/>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="75"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="39"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D167,4)</f>
-        <v>6666</v>
+        <f>RIGHT(D60:D168,4)</f>
+        <v>6785</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="28">
-        <v>1001302276666</v>
+        <v>1001300516785</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="23">
-        <f>E60*0.28</f>
+        <f>E60*0.33</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="39"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="94" t="str">
         <f>RIGHT(D61:D168,4)</f>
-        <v>6785</v>
+        <v>6773</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="28">
-        <v>1001300516785</v>
+        <v>1001303106773</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G61" s="23">
-        <f>E61*0.33</f>
+        <f>E61*0.28</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="H61" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D168,4)</f>
-        <v>6773</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="33" t="s">
+        <f>RIGHT(D62:D171,4)</f>
+        <v/>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="75"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="94" t="str">
+        <f>RIGHT(D63:D172,4)</f>
+        <v>6683</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="28">
-        <v>1001303106773</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G62" s="23">
-        <f>E62*0.28</f>
+      <c r="D63" s="28">
+        <v>1001300386683</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G63" s="23">
+        <f>E63*0.35</f>
         <v>0</v>
       </c>
-      <c r="H62" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I62" s="14">
+      <c r="H63" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I63" s="14">
         <v>45</v>
       </c>
-      <c r="J62" s="39"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D171,4)</f>
-        <v/>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="75"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="39"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D172,4)</f>
-        <v>6683</v>
+        <f>RIGHT(D64:D174,4)</f>
+        <v>6793</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="28">
-        <v>1001300386683</v>
+        <v>1001303636793</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*0.35</f>
+        <f>E64*0.33</f>
         <v>0</v>
       </c>
-      <c r="H64" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I64" s="14">
-        <v>45</v>
-      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D174,4)</f>
-        <v>6793</v>
+        <f>RIGHT(D65:D175,4)</f>
+        <v>6795</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="28">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
@@ -3356,19 +3355,19 @@
       <c r="I65" s="14"/>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
         <f>RIGHT(D66:D175,4)</f>
-        <v>6795</v>
+        <v>6807</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="28">
-        <v>1001302596795</v>
+        <v>1001300366807</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
@@ -3380,85 +3379,86 @@
       <c r="I66" s="14"/>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
         <f>RIGHT(D67:D175,4)</f>
-        <v>6807</v>
+        <v>6684</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001300366807</v>
+        <v>1001304506684</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G67" s="23">
-        <f>E67*0.33</f>
+        <f>E67*0.28</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="H67" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I67" s="14">
+        <v>45</v>
+      </c>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D175,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D68:D177,4)</f>
+        <v>6787</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="28">
-        <v>1001304506684</v>
+        <v>1001300456787</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F68" s="23"/>
       <c r="G68" s="23">
-        <f>E68*0.28</f>
+        <f>E68*0.33</f>
         <v>0</v>
       </c>
-      <c r="H68" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I68" s="14">
-        <v>45</v>
-      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D177,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D69:D178,4)</f>
+        <v>6788</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D69" s="28">
-        <v>1001300456787</v>
+        <v>1001300456788</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <f>E69*0.33</f>
+        <f>E69*1</f>
         <v>0</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="82"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
         <f>RIGHT(D70:D178,4)</f>
         <v>6689</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D179,4)</f>
         <v>6791</v>
@@ -3512,7 +3512,7 @@
       <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
         <f>RIGHT(D72:D180,4)</f>
         <v>5341</v>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
         <f>RIGHT(D73:D182,4)</f>
         <v>6586</v>
@@ -3566,7 +3566,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
         <f>RIGHT(D74:D180,4)</f>
         <v>6228</v>
@@ -3590,7 +3590,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
         <f>RIGHT(D75:D180,4)</f>
         <v>5544</v>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="str">
         <f t="shared" ref="A76:A81" si="0">RIGHT(D76:D182,4)</f>
         <v>6697</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3667,7 +3667,7 @@
       <c r="I77" s="74"/>
       <c r="J77" s="75"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
         <f t="shared" si="0"/>
         <v>5706</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
         <f t="shared" si="0"/>
         <v>6454</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
         <f t="shared" si="0"/>
         <v>6222</v>
@@ -4133,7 +4133,7 @@
         <v>6919</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>25</v>
@@ -4157,7 +4157,7 @@
         <v/>
       </c>
       <c r="B96" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="74"/>
       <c r="D96" s="74"/>
@@ -4174,7 +4174,7 @@
         <v/>
       </c>
       <c r="B97" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="74"/>
       <c r="D97" s="74"/>
@@ -4191,7 +4191,7 @@
         <v>6314</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         <v>6155</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>25</v>
@@ -4245,7 +4245,7 @@
         <v>6157</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>25</v>
@@ -4269,7 +4269,7 @@
         <v>6313</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="36" t="s">
         <v>25</v>
@@ -4299,7 +4299,7 @@
         <v/>
       </c>
       <c r="B102" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="74"/>
       <c r="D102" s="74"/>
@@ -4316,7 +4316,7 @@
         <v>4945</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="36" t="s">
         <v>25</v>
@@ -4346,7 +4346,7 @@
         <v/>
       </c>
       <c r="B104" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="74"/>
       <c r="D104" s="74"/>
@@ -4363,7 +4363,7 @@
         <v>4956</v>
       </c>
       <c r="B105" s="89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="90" t="s">
         <v>25</v>
@@ -4394,7 +4394,7 @@
         <v>1762</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>25</v>
@@ -4424,7 +4424,7 @@
         <v>1764</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="36" t="s">
         <v>25</v>
@@ -4454,7 +4454,7 @@
         <v/>
       </c>
       <c r="B108" s="74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -4471,7 +4471,7 @@
         <v/>
       </c>
       <c r="B109" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="74"/>
       <c r="D109" s="74"/>
@@ -4488,13 +4488,13 @@
         <v>6004</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
@@ -4518,13 +4518,13 @@
         <v>5417</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
@@ -4548,13 +4548,13 @@
         <v>6019</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
@@ -4575,7 +4575,7 @@
     <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="77"/>
       <c r="B113" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="48"/>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="H113" s="17">
         <f>SUM(H10:H109)</f>
-        <v>157.93999999999994</v>
+        <v>154.69999999999993</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="81"/>
     </row>
@@ -19940,12 +19940,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -19956,13 +19956,13 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="61"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -19984,13 +19984,13 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="61"/>
     </row>
@@ -20016,7 +20016,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -20037,13 +20037,13 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="81"/>
     </row>
@@ -20055,29 +20055,29 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="61"/>
     </row>
@@ -20130,19 +20130,19 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="61"/>
     </row>
@@ -20160,19 +20160,19 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="81"/>
     </row>
@@ -20188,7 +20188,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" s="61"/>
     </row>
@@ -20200,7 +20200,7 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="81"/>
     </row>
@@ -20234,7 +20234,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="61"/>
     </row>
@@ -20288,25 +20288,25 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" s="61"/>
     </row>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="61"/>
     </row>
@@ -20330,31 +20330,31 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C86" s="61"/>
     </row>
